--- a/wzt/hist 26-01-2025.xlsx
+++ b/wzt/hist 26-01-2025.xlsx
@@ -9,6 +9,7 @@
     <sheet name="ROUND 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ROUND 2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ROUND 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ROUND 11" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
@@ -4251,4 +4252,1009 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.7109375" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="13" t="inlineStr">
+        <is>
+          <t>ela</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="13" t="inlineStr">
+        <is>
+          <t>geo</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="10" t="n"/>
+      <c r="J1" s="13" t="inlineStr">
+        <is>
+          <t>flo</t>
+        </is>
+      </c>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="10" t="n"/>
+      <c r="M1" s="13" t="inlineStr">
+        <is>
+          <t>cip</t>
+        </is>
+      </c>
+      <c r="N1" s="9" t="n"/>
+      <c r="O1" s="10" t="n"/>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="14" t="n">
+        <v>194</v>
+      </c>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="14" t="n">
+        <v>194</v>
+      </c>
+      <c r="K2" s="6" t="n"/>
+      <c r="L2" s="7" t="n"/>
+      <c r="M2" s="14" t="n">
+        <v>194</v>
+      </c>
+      <c r="N2" s="6" t="n"/>
+      <c r="O2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="21" customHeight="1">
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>Pariat</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>Facut</t>
+        </is>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
+        <is>
+          <t>Puncte</t>
+        </is>
+      </c>
+      <c r="G3" s="16" t="inlineStr">
+        <is>
+          <t>Pariat</t>
+        </is>
+      </c>
+      <c r="H3" s="16" t="inlineStr">
+        <is>
+          <t>Facut</t>
+        </is>
+      </c>
+      <c r="I3" s="16" t="inlineStr">
+        <is>
+          <t>Puncte</t>
+        </is>
+      </c>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t>Pariat</t>
+        </is>
+      </c>
+      <c r="K3" s="16" t="inlineStr">
+        <is>
+          <t>Facut</t>
+        </is>
+      </c>
+      <c r="L3" s="16" t="inlineStr">
+        <is>
+          <t>Puncte</t>
+        </is>
+      </c>
+      <c r="M3" s="16" t="inlineStr">
+        <is>
+          <t>Pariat</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>#1</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="C5" s="15" t="inlineStr">
+        <is>
+          <t>#2</t>
+        </is>
+      </c>
+      <c r="D5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
+      <c r="D6" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="C7" s="15" t="inlineStr">
+        <is>
+          <t>#4</t>
+        </is>
+      </c>
+      <c r="D7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>#5</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="C9" s="15" t="inlineStr">
+        <is>
+          <t>#6</t>
+        </is>
+      </c>
+      <c r="D9" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>#7</t>
+        </is>
+      </c>
+      <c r="D10" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="C11" s="15" t="inlineStr">
+        <is>
+          <t>#8</t>
+        </is>
+      </c>
+      <c r="D11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>#9</t>
+        </is>
+      </c>
+      <c r="D12" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" s="17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1">
+      <c r="C13" s="15" t="inlineStr">
+        <is>
+          <t>#10</t>
+        </is>
+      </c>
+      <c r="D13" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L13" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>#11</t>
+        </is>
+      </c>
+      <c r="D14" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M14" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>#12</t>
+        </is>
+      </c>
+      <c r="D15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L15" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1">
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>#13</t>
+        </is>
+      </c>
+      <c r="D16" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>#14</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" s="17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="21" customHeight="1">
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>#15</t>
+        </is>
+      </c>
+      <c r="D18" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" s="17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="21" customHeight="1">
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>#16</t>
+        </is>
+      </c>
+      <c r="D19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" s="17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1">
+      <c r="C20" s="15" t="inlineStr">
+        <is>
+          <t>#17</t>
+        </is>
+      </c>
+      <c r="D20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1">
+      <c r="C21" s="15" t="inlineStr">
+        <is>
+          <t>#18</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" s="17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1">
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>#19</t>
+        </is>
+      </c>
+      <c r="D22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1">
+      <c r="C23" s="15" t="inlineStr">
+        <is>
+          <t>#20</t>
+        </is>
+      </c>
+      <c r="D23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" s="17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1">
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>#21</t>
+        </is>
+      </c>
+      <c r="D24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="21" customHeight="1">
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>#22</t>
+        </is>
+      </c>
+      <c r="D25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1">
+      <c r="C26" s="15" t="inlineStr">
+        <is>
+          <t>#23</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>